--- a/document/【ファイルサーバ課題】画面入出力項目一覧.xlsx
+++ b/document/【ファイルサーバ課題】画面入出力項目一覧.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87FE362-5C0C-4771-96D6-C9B459827557}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD96596-D882-40CF-8413-501555B12054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="26136" windowHeight="16896" tabRatio="836" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="836" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="6" r:id="rId1"/>
@@ -16,6 +16,7 @@
     <sheet name="ファイルサーバ画面" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="179">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -364,10 +365,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>input type="radio"</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>削除</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
@@ -722,16 +719,6 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>ガメン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ設定初期値は閲覧者</t>
-    <rPh sb="3" eb="8">
-      <t>セッテイショキチ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>エツランシャ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1658,12 +1645,84 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>石川</t>
+    <rPh sb="0" eb="2">
+      <t>イシカワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ管理画面</t>
+    <rPh sb="3" eb="7">
+      <t>カンリガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>usersテーブルのauthorityに登録されている権限の名称を表示
+ユーザ設定初期値は閲覧者</t>
+    <rPh sb="27" eb="29">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="39" eb="44">
+      <t>セッテイショキチ</t>
+    </rPh>
+    <rPh sb="45" eb="48">
+      <t>エツランシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>select
+option(閲覧者)
+option(更新者)</t>
+    <rPh sb="14" eb="17">
+      <t>エツランシャ</t>
+    </rPh>
+    <rPh sb="26" eb="29">
+      <t>コウシンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・No3 部品の種類をラジオボタンからプルダウンに変更
+・No9 権限変更時の完了メッセージ出力を削除</t>
+    <rPh sb="5" eb="7">
+      <t>ブヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュルイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="33" eb="38">
+      <t>ケンゲンヘンコウジ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュツリョク</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>サクジョシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1687,7 +1746,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1703,6 +1762,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1791,7 +1856,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1831,6 +1896,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1855,15 +1932,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1873,8 +1941,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2192,23 +2269,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592945A2-2618-4B24-8F14-DE43431AC7E5}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <cols>
-    <col min="3" max="3" width="11.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.19921875" customWidth="1"/>
-    <col min="5" max="5" width="57.69921875" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.2109375" customWidth="1"/>
+    <col min="5" max="5" width="57.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -2225,7 +2302,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="90">
+    <row r="3" spans="1:5" ht="92.15" x14ac:dyDescent="0.65">
       <c r="A3" s="2">
         <f>ROW(A1)</f>
         <v>1</v>
@@ -2237,13 +2314,13 @@
         <v>44176</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="306">
+    <row r="4" spans="1:5" ht="313.3" x14ac:dyDescent="0.65">
       <c r="A4" s="2">
         <f t="shared" ref="A4:A20" si="0">ROW(A2)</f>
         <v>2</v>
@@ -2255,23 +2332,31 @@
         <v>44179</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>96</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="36.9" x14ac:dyDescent="0.65">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="B5" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="13">
+        <v>44181</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2281,7 +2366,7 @@
       <c r="D6" s="2"/>
       <c r="E6" s="4"/>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2291,7 +2376,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2301,7 +2386,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2311,7 +2396,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2321,7 +2406,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2331,7 +2416,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A12" s="2">
         <f>ROW(A10)</f>
         <v>10</v>
@@ -2341,7 +2426,7 @@
       <c r="D12" s="2"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2351,7 +2436,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2361,7 +2446,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2371,7 +2456,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2381,7 +2466,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2391,7 +2476,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2401,7 +2486,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2411,7 +2496,7 @@
       <c r="D19" s="2"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2424,7 +2509,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2436,207 +2521,207 @@
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="16" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="21">
         <v>44176</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="15" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="16" t="s">
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="16" t="s">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="21">
         <v>44179</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="16" t="s">
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16" t="s">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16" t="s">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
@@ -2644,36 +2729,36 @@
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="8" spans="1:23" ht="69" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
@@ -2684,10 +2769,10 @@
         <v>34</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>38</v>
@@ -2695,40 +2780,40 @@
       <c r="L8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="Q8" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-    </row>
-    <row r="9" spans="1:23" ht="69" customHeight="1">
+      <c r="U8" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+    </row>
+    <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
@@ -2739,10 +2824,10 @@
         <v>34</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>38</v>
@@ -2750,40 +2835,40 @@
       <c r="L9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="M9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="Q9" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" spans="1:23" ht="69" customHeight="1">
+      <c r="U9" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+    </row>
+    <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
@@ -2805,40 +2890,40 @@
       <c r="L10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="Q10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-    </row>
-    <row r="11" spans="1:23" ht="69" customHeight="1">
+      <c r="U10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="12">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
@@ -2860,40 +2945,40 @@
       <c r="L11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="M11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="Q11" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-    </row>
-    <row r="12" spans="1:23" ht="69" customHeight="1">
+      <c r="U11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+    </row>
+    <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="12">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="13"/>
+      <c r="B12" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="17"/>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
@@ -2915,40 +3000,40 @@
       <c r="L12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="M12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="Q12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" ht="69" customHeight="1">
+      <c r="U12" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="12">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="13"/>
+      <c r="B13" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
@@ -2970,40 +3055,40 @@
       <c r="L13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="M13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="Q13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-    </row>
-    <row r="14" spans="1:23" ht="69" customHeight="1">
+      <c r="U13" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="12">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="B14" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -3025,40 +3110,40 @@
       <c r="L14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="M14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="Q14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-    </row>
-    <row r="15" spans="1:23" ht="69" customHeight="1">
+      <c r="U14" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="12">
         <v>8</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="13"/>
+      <c r="B15" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
@@ -3080,40 +3165,40 @@
       <c r="L15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="M15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="Q15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-    </row>
-    <row r="16" spans="1:23" ht="69" customHeight="1">
+      <c r="U15" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A16" s="12">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="13"/>
+      <c r="B16" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="8" t="s">
         <v>34</v>
       </c>
@@ -3135,40 +3220,40 @@
       <c r="L16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="M16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
       <c r="P16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="Q16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-    </row>
-    <row r="17" spans="1:23" ht="69" customHeight="1">
+      <c r="U16" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+    </row>
+    <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="13"/>
+      <c r="B17" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
@@ -3190,39 +3275,39 @@
       <c r="L17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="M17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="Q17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
       <c r="T17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="F18" s="14" t="s">
+      <c r="U17" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="F18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="73">
@@ -3314,207 +3399,207 @@
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="16" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="21">
         <v>44176</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="16" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A3" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="16" t="s">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="21">
         <v>44179</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="16" t="s">
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16" t="s">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16" t="s">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
@@ -3522,36 +3607,36 @@
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="8" spans="1:23" ht="69" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
+      <c r="B8" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="13"/>
+      <c r="E8" s="17"/>
       <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
@@ -3562,10 +3647,10 @@
         <v>34</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>38</v>
@@ -3573,40 +3658,40 @@
       <c r="L8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="M8" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>171</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="Q8" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-    </row>
-    <row r="9" spans="1:23" ht="69" customHeight="1">
+      <c r="U8" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+    </row>
+    <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
@@ -3617,10 +3702,10 @@
         <v>34</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>38</v>
@@ -3628,40 +3713,40 @@
       <c r="L9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="M9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>170</v>
-      </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="Q9" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" spans="1:23" ht="69" customHeight="1">
+      <c r="U9" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+    </row>
+    <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
@@ -3672,10 +3757,10 @@
         <v>34</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>38</v>
@@ -3683,40 +3768,40 @@
       <c r="L10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="Q10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-    </row>
-    <row r="11" spans="1:23" ht="69" customHeight="1">
+      <c r="U10" s="17" t="s">
+        <v>166</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
@@ -3727,10 +3812,10 @@
         <v>34</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>38</v>
@@ -3738,40 +3823,40 @@
       <c r="L11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="M11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="Q11" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-    </row>
-    <row r="12" spans="1:23" ht="69" customHeight="1">
+      <c r="U11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+    </row>
+    <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
@@ -3793,40 +3878,40 @@
       <c r="L12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="M12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="Q12" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" ht="69" customHeight="1">
+      <c r="U12" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="12">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
@@ -3848,40 +3933,40 @@
       <c r="L13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="M13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="Q13" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-    </row>
-    <row r="14" spans="1:23" ht="69" customHeight="1">
+      <c r="U13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="12">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E14" s="13"/>
+      <c r="B14" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="17"/>
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -3903,40 +3988,40 @@
       <c r="L14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="M14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="25"/>
-      <c r="S14" s="26"/>
+      <c r="Q14" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="26"/>
+      <c r="S14" s="27"/>
       <c r="T14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-    </row>
-    <row r="15" spans="1:23" ht="69" customHeight="1">
+      <c r="U14" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="12">
         <v>8</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E15" s="13"/>
+      <c r="B15" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="17"/>
       <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
@@ -3958,40 +4043,40 @@
       <c r="L15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="M15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="25"/>
-      <c r="S15" s="26"/>
+      <c r="Q15" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="26"/>
+      <c r="S15" s="27"/>
       <c r="T15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>129</v>
-      </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-    </row>
-    <row r="16" spans="1:23" ht="69" customHeight="1">
+      <c r="U15" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A16" s="12">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="13"/>
+      <c r="B16" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="17"/>
       <c r="F16" s="8" t="s">
         <v>34</v>
       </c>
@@ -4013,40 +4098,40 @@
       <c r="L16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="M16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
       <c r="P16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="Q16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-    </row>
-    <row r="17" spans="1:23" ht="69" customHeight="1">
+      <c r="U16" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+    </row>
+    <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="12">
         <v>10</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" s="13"/>
+      <c r="B17" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
@@ -4068,40 +4153,40 @@
       <c r="L17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="M17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="25"/>
-      <c r="S17" s="26"/>
+      <c r="Q17" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="26"/>
+      <c r="S17" s="27"/>
       <c r="T17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-    </row>
-    <row r="18" spans="1:23" ht="69" customHeight="1">
+      <c r="U17" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A18" s="12">
         <v>11</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="13"/>
+      <c r="B18" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="17"/>
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
@@ -4123,40 +4208,40 @@
       <c r="L18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
+      <c r="M18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
+      <c r="Q18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
       <c r="T18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="69" customHeight="1">
+      <c r="U18" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="12">
         <v>12</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="13"/>
+      <c r="B19" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="8" t="s">
         <v>34</v>
       </c>
@@ -4178,40 +4263,40 @@
       <c r="L19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
+      <c r="M19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
+      <c r="Q19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
       <c r="T19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-    </row>
-    <row r="20" spans="1:23" ht="69" customHeight="1">
+      <c r="U19" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+    </row>
+    <row r="20" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="12">
         <v>13</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="13"/>
+      <c r="B20" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="8" t="s">
         <v>34</v>
       </c>
@@ -4233,40 +4318,40 @@
       <c r="L20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="M20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
+      <c r="Q20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
       <c r="T20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="69" customHeight="1">
+      <c r="U20" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+    </row>
+    <row r="21" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A21" s="12">
         <v>14</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="13"/>
+      <c r="B21" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="8" t="s">
         <v>34</v>
       </c>
@@ -4288,40 +4373,40 @@
       <c r="L21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="M21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="Q21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
       <c r="T21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="69" customHeight="1">
+      <c r="U21" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+    </row>
+    <row r="22" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="B22" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E22" s="17"/>
       <c r="F22" s="8" t="s">
         <v>34</v>
       </c>
@@ -4343,27 +4428,27 @@
       <c r="L22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="M22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
       <c r="P22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
+      <c r="Q22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
       <c r="T22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
+      <c r="U22" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="97">
@@ -4411,6 +4496,7 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="M12:O12"/>
@@ -4421,7 +4507,6 @@
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="Q13:S13"/>
     <mergeCell ref="U13:W13"/>
-    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:E11"/>
     <mergeCell ref="M11:O11"/>
@@ -4478,207 +4563,207 @@
       <selection activeCell="B8" sqref="B8:C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="16" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="21">
         <v>44176</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="16" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A3" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="16" t="s">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="21">
         <v>44179</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="16" t="s">
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16" t="s">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16" t="s">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
@@ -4686,36 +4771,36 @@
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="8" spans="1:23" ht="69" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="B8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="8" t="s">
         <v>33</v>
       </c>
@@ -4726,7 +4811,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>33</v>
@@ -4737,40 +4822,40 @@
       <c r="L8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="M8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="Q8" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-    </row>
-    <row r="9" spans="1:23" ht="69" customHeight="1">
+      <c r="U8" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+    </row>
+    <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="10">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
+      <c r="B9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="13"/>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
@@ -4781,10 +4866,10 @@
         <v>34</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K9" s="10" t="s">
         <v>38</v>
@@ -4792,40 +4877,40 @@
       <c r="L9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="M9" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="Q9" s="17" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" spans="1:23" ht="69" customHeight="1">
+      <c r="U9" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+    </row>
+    <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="10">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13"/>
+      <c r="E10" s="17"/>
       <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
@@ -4836,10 +4921,10 @@
         <v>34</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>38</v>
@@ -4847,40 +4932,40 @@
       <c r="L10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="Q10" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="13" t="s">
-        <v>160</v>
-      </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-    </row>
-    <row r="11" spans="1:23" ht="69" customHeight="1">
+      <c r="U10" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="10">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
@@ -4891,10 +4976,10 @@
         <v>34</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>38</v>
@@ -4902,40 +4987,40 @@
       <c r="L11" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="M11" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="Q11" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-    </row>
-    <row r="12" spans="1:23" ht="69" customHeight="1">
+      <c r="U11" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+    </row>
+    <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="10">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
@@ -4957,40 +5042,40 @@
       <c r="L12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="M12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="Q12" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" ht="69" customHeight="1">
+      <c r="U12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="10">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
@@ -5012,40 +5097,40 @@
       <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="M13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="Q13" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-    </row>
-    <row r="14" spans="1:23" ht="69" customHeight="1">
+      <c r="U13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="10">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -5067,150 +5152,150 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="M14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="Q14" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-    </row>
-    <row r="15" spans="1:23" ht="69" customHeight="1">
+      <c r="U14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="10">
         <v>8</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-    </row>
-    <row r="16" spans="1:23" ht="69" customHeight="1">
+      <c r="U15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A16" s="10">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-    </row>
-    <row r="17" spans="1:23" ht="69" customHeight="1">
+      <c r="U16" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V16" s="17"/>
+      <c r="W16" s="17"/>
+    </row>
+    <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="12">
         <v>10</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
+      <c r="B17" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E17" s="13"/>
+      <c r="E17" s="17"/>
       <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
@@ -5232,40 +5317,40 @@
       <c r="L17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="M17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="Q17" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
       <c r="T17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-    </row>
-    <row r="18" spans="1:23" ht="69" customHeight="1">
+      <c r="U17" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A18" s="12">
         <v>11</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="13"/>
+      <c r="B18" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="17"/>
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
@@ -5287,40 +5372,40 @@
       <c r="L18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
+      <c r="M18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="25"/>
-      <c r="S18" s="26"/>
+      <c r="Q18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="26"/>
+      <c r="S18" s="27"/>
       <c r="T18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="13" t="s">
-        <v>144</v>
-      </c>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="69" customHeight="1">
+      <c r="U18" s="17" t="s">
+        <v>142</v>
+      </c>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="12">
         <v>12</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E19" s="13"/>
+      <c r="B19" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="17"/>
       <c r="F19" s="8" t="s">
         <v>34</v>
       </c>
@@ -5342,40 +5427,40 @@
       <c r="L19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
+      <c r="M19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" s="25"/>
-      <c r="S19" s="26"/>
+      <c r="Q19" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="26"/>
+      <c r="S19" s="27"/>
       <c r="T19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="V19" s="13"/>
-      <c r="W19" s="13"/>
-    </row>
-    <row r="20" spans="1:23" ht="69" customHeight="1">
+      <c r="U19" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="V19" s="17"/>
+      <c r="W19" s="17"/>
+    </row>
+    <row r="20" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="12">
         <v>13</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="13"/>
+      <c r="B20" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="17"/>
       <c r="F20" s="8" t="s">
         <v>34</v>
       </c>
@@ -5397,40 +5482,40 @@
       <c r="L20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="M20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
+      <c r="Q20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
       <c r="T20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="13" t="s">
-        <v>139</v>
-      </c>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="69" customHeight="1">
+      <c r="U20" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+    </row>
+    <row r="21" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A21" s="12">
         <v>14</v>
       </c>
-      <c r="B21" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="13"/>
+      <c r="B21" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="17"/>
       <c r="F21" s="8" t="s">
         <v>34</v>
       </c>
@@ -5452,40 +5537,40 @@
       <c r="L21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
+      <c r="M21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
       <c r="P21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="Q21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
       <c r="T21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="69" customHeight="1">
+      <c r="U21" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+    </row>
+    <row r="22" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A22" s="12">
         <v>15</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E22" s="13"/>
+      <c r="B22" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="17"/>
       <c r="F22" s="8" t="s">
         <v>34</v>
       </c>
@@ -5507,40 +5592,40 @@
       <c r="L22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
+      <c r="M22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
       <c r="P22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
+      <c r="Q22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
       <c r="T22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="69" customHeight="1">
+      <c r="U22" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+    </row>
+    <row r="23" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A23" s="12">
         <v>16</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="13"/>
+      <c r="B23" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="17"/>
       <c r="F23" s="8" t="s">
         <v>34</v>
       </c>
@@ -5562,40 +5647,40 @@
       <c r="L23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="M23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
       <c r="P23" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
+      <c r="Q23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
       <c r="T23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>141</v>
-      </c>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="69" customHeight="1">
+      <c r="U23" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A24" s="12">
         <v>17</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>140</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E24" s="13"/>
+      <c r="B24" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="17"/>
       <c r="F24" s="8" t="s">
         <v>34</v>
       </c>
@@ -5617,40 +5702,40 @@
       <c r="L24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="M24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
       <c r="P24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
+      <c r="Q24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
       <c r="T24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
-    </row>
-    <row r="25" spans="1:23" ht="69" customHeight="1">
+      <c r="U24" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
+    </row>
+    <row r="25" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A25" s="12">
         <v>18</v>
       </c>
-      <c r="B25" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="13"/>
+      <c r="B25" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="17"/>
       <c r="F25" s="8" t="s">
         <v>34</v>
       </c>
@@ -5672,40 +5757,40 @@
       <c r="L25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
+      <c r="M25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
       <c r="P25" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q25" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="13"/>
-      <c r="S25" s="13"/>
+      <c r="Q25" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
       <c r="T25" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U25" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="V25" s="13"/>
-      <c r="W25" s="13"/>
-    </row>
-    <row r="26" spans="1:23" ht="69" customHeight="1">
+      <c r="U25" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="V25" s="17"/>
+      <c r="W25" s="17"/>
+    </row>
+    <row r="26" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A26" s="10">
         <v>19</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E26" s="13"/>
+      <c r="B26" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E26" s="17"/>
       <c r="F26" s="8" t="s">
         <v>34</v>
       </c>
@@ -5727,27 +5812,27 @@
       <c r="L26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="13"/>
-      <c r="O26" s="13"/>
+      <c r="M26" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
       <c r="P26" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q26" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R26" s="13"/>
-      <c r="S26" s="13"/>
+      <c r="Q26" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
       <c r="T26" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U26" s="13" t="s">
-        <v>153</v>
-      </c>
-      <c r="V26" s="13"/>
-      <c r="W26" s="13"/>
+      <c r="U26" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="V26" s="17"/>
+      <c r="W26" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="117">
@@ -5771,6 +5856,12 @@
     <mergeCell ref="M22:O22"/>
     <mergeCell ref="Q22:S22"/>
     <mergeCell ref="U22:W22"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:E21"/>
     <mergeCell ref="M21:O21"/>
@@ -5781,20 +5872,6 @@
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="Q20:S20"/>
     <mergeCell ref="U20:W20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
     <mergeCell ref="U15:W15"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
@@ -5811,6 +5888,14 @@
     <mergeCell ref="M15:O15"/>
     <mergeCell ref="Q15:S15"/>
     <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="Q19:S19"/>
     <mergeCell ref="U14:W14"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="D13:E13"/>
@@ -5879,210 +5964,210 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="16" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="21">
         <v>44176</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="16" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A3" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="16" t="s">
+      <c r="T3" s="22" t="s">
+        <v>174</v>
+      </c>
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="17">
-        <v>44179</v>
-      </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="16" t="s">
+      <c r="T4" s="21">
+        <v>44181</v>
+      </c>
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16" t="s">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16" t="s">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
@@ -6090,36 +6175,36 @@
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="8" spans="1:23" ht="69" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="B8" s="17" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
@@ -6141,40 +6226,40 @@
       <c r="L8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="M8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="Q8" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-    </row>
-    <row r="9" spans="1:23" ht="69" customHeight="1">
+      <c r="U8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+    </row>
+    <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="13"/>
+      <c r="B9" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
@@ -6196,40 +6281,40 @@
       <c r="L9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="M9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="Q9" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" spans="1:23" ht="69" customHeight="1">
+      <c r="U9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+    </row>
+    <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="13"/>
+      <c r="B10" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
@@ -6251,40 +6336,40 @@
       <c r="L10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="Q10" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-    </row>
-    <row r="11" spans="1:23" ht="69" customHeight="1">
+      <c r="U10" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
+      <c r="B11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="13"/>
+      <c r="E11" s="17"/>
       <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
@@ -6306,40 +6391,40 @@
       <c r="L11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="M11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="Q11" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-    </row>
-    <row r="12" spans="1:23" ht="69" customHeight="1">
+      <c r="U11" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+    </row>
+    <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
@@ -6361,40 +6446,40 @@
       <c r="L12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="M12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="Q12" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" ht="69" customHeight="1">
+      <c r="U12" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
+      <c r="B13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="17"/>
       <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
@@ -6416,40 +6501,40 @@
       <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
+      <c r="M13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
       <c r="P13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="Q13" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-    </row>
-    <row r="14" spans="1:23" ht="69" customHeight="1">
+      <c r="U13" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -6471,40 +6556,40 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="M14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="Q14" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V14" s="13"/>
-      <c r="W14" s="13"/>
-    </row>
-    <row r="15" spans="1:23" ht="69" customHeight="1">
+      <c r="U14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14" s="17"/>
+      <c r="W14" s="17"/>
+    </row>
+    <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="12">
         <v>8</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
@@ -6526,95 +6611,95 @@
       <c r="L15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="M15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="Q15" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-    </row>
-    <row r="16" spans="1:23" ht="69" customHeight="1">
-      <c r="A16" s="12">
+      <c r="U15" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A16" s="15">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>155</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="8" t="s">
+      <c r="B16" s="28" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="28"/>
+      <c r="F16" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="8" t="s">
+      <c r="H16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="8" t="s">
+      <c r="I16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
-      <c r="T16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="V16" s="13"/>
-      <c r="W16" s="13"/>
-    </row>
-    <row r="17" spans="1:23" ht="69" customHeight="1">
+      <c r="Q16" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="28" t="s">
+        <v>152</v>
+      </c>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+    </row>
+    <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="12">
         <v>10</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E17" s="13"/>
+      <c r="B17" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
@@ -6636,27 +6721,27 @@
       <c r="L17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="M17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="Q17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
       <c r="T17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
+      <c r="U17" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="72">
@@ -6665,9 +6750,6 @@
     <mergeCell ref="M17:O17"/>
     <mergeCell ref="Q17:S17"/>
     <mergeCell ref="U17:W17"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
     <mergeCell ref="U16:W16"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -6681,8 +6763,6 @@
     <mergeCell ref="U10:W10"/>
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="U14:W14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
@@ -6694,12 +6774,18 @@
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="M13:O13"/>
     <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="Q12:S12"/>
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="U13:W13"/>
     <mergeCell ref="U12:W12"/>
     <mergeCell ref="U11:W11"/>
@@ -6716,7 +6802,6 @@
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:C7"/>
     <mergeCell ref="D6:E7"/>
@@ -6747,207 +6832,207 @@
       <selection activeCell="B11" sqref="B11:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A1" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
-      <c r="L1" s="15"/>
-      <c r="M1" s="15"/>
-      <c r="N1" s="15"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="16" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="Q1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="16" t="s">
+      <c r="R1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="18" t="s">
+      <c r="T1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" s="15"/>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="16" t="s">
+      <c r="U1" s="22"/>
+      <c r="V1" s="22"/>
+      <c r="W1" s="22"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A2" s="19"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="19"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="16" t="s">
+      <c r="Q2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="16" t="s">
+      <c r="R2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="16" t="s">
+      <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="17">
+      <c r="T2" s="21">
         <v>44176</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="16" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="22"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
+      <c r="N3" s="19"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="16" t="s">
+      <c r="Q3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="16" t="s">
+      <c r="R3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="16" t="s">
+      <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="18" t="s">
+      <c r="T3" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" s="15"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="16" t="s">
+      <c r="U3" s="22"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
+      <c r="N4" s="19"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="Q4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="R4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="S4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="17">
+      <c r="T4" s="21">
         <v>44179</v>
       </c>
-      <c r="U4" s="18"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="16" t="s">
+      <c r="U4" s="22"/>
+      <c r="V4" s="22"/>
+      <c r="W4" s="22"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="19" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="K6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16" t="s">
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="16"/>
-      <c r="R6" s="16"/>
-      <c r="S6" s="16"/>
-      <c r="T6" s="16" t="s">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="16" t="s">
+      <c r="U6" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="16"/>
-      <c r="W6" s="16"/>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
@@ -6955,36 +7040,36 @@
         <v>2</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
-    </row>
-    <row r="8" spans="1:23" ht="69" customHeight="1">
+        <v>94</v>
+      </c>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="20"/>
+    </row>
+    <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="13"/>
+      <c r="B8" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="17"/>
       <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
@@ -7006,40 +7091,40 @@
       <c r="L8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
+      <c r="M8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="17"/>
+      <c r="O8" s="17"/>
       <c r="P8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
+      <c r="Q8" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" s="17"/>
+      <c r="S8" s="17"/>
       <c r="T8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-    </row>
-    <row r="9" spans="1:23" ht="69" customHeight="1">
+      <c r="U8" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="V8" s="17"/>
+      <c r="W8" s="17"/>
+    </row>
+    <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="13"/>
+      <c r="B9" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="17"/>
       <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
@@ -7061,40 +7146,40 @@
       <c r="L9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
+      <c r="M9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="17"/>
+      <c r="O9" s="17"/>
       <c r="P9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
+      <c r="Q9" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="R9" s="17"/>
+      <c r="S9" s="17"/>
       <c r="T9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-    </row>
-    <row r="10" spans="1:23" ht="69" customHeight="1">
+      <c r="U9" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="V9" s="17"/>
+      <c r="W9" s="17"/>
+    </row>
+    <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="13"/>
+      <c r="B10" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="17"/>
       <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
@@ -7116,40 +7201,40 @@
       <c r="L10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
+      <c r="M10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
       <c r="P10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
+      <c r="Q10" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
       <c r="T10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-    </row>
-    <row r="11" spans="1:23" ht="69" customHeight="1">
+      <c r="U10" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="V10" s="17"/>
+      <c r="W10" s="17"/>
+    </row>
+    <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="13"/>
+      <c r="B11" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="17"/>
       <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
@@ -7171,40 +7256,40 @@
       <c r="L11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
+      <c r="M11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
       <c r="P11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
+      <c r="Q11" s="17" t="s">
+        <v>116</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
       <c r="T11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-    </row>
-    <row r="12" spans="1:23" ht="69" customHeight="1">
+      <c r="U11" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="V11" s="17"/>
+      <c r="W11" s="17"/>
+    </row>
+    <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="11">
         <v>5</v>
       </c>
-      <c r="B12" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13" t="s">
+      <c r="B12" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="13"/>
+      <c r="E12" s="17"/>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
@@ -7226,40 +7311,40 @@
       <c r="L12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
+      <c r="M12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
       <c r="P12" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q12" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="Q12" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
+      <c r="R12" s="17"/>
+      <c r="S12" s="17"/>
       <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-    </row>
-    <row r="13" spans="1:23" ht="69" customHeight="1">
+      <c r="U12" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="V12" s="17"/>
+      <c r="W12" s="17"/>
+    </row>
+    <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="11">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E13" s="13"/>
+      <c r="B13" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="17"/>
       <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
@@ -7281,40 +7366,40 @@
       <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="13" t="s">
+      <c r="M13" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
+      <c r="R13" s="17"/>
+      <c r="S13" s="17"/>
       <c r="T13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-    </row>
-    <row r="14" spans="1:23" ht="69" customHeight="1">
+      <c r="U13" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="V13" s="17"/>
+      <c r="W13" s="17"/>
+    </row>
+    <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="11">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13" t="s">
+      <c r="B14" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="13"/>
+      <c r="E14" s="17"/>
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -7336,40 +7421,40 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
+      <c r="M14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
       <c r="P14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="R14" s="13"/>
-      <c r="S14" s="13"/>
+      <c r="Q14" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
       <c r="T14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="V14" s="22"/>
-      <c r="W14" s="23"/>
-    </row>
-    <row r="15" spans="1:23" ht="69" customHeight="1">
+      <c r="U14" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="V14" s="30"/>
+      <c r="W14" s="31"/>
+    </row>
+    <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="11">
         <v>8</v>
       </c>
-      <c r="B15" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13" t="s">
+      <c r="B15" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="13"/>
+      <c r="E15" s="17"/>
       <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
@@ -7391,40 +7476,40 @@
       <c r="L15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
+      <c r="M15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
       <c r="P15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="R15" s="13"/>
-      <c r="S15" s="13"/>
+      <c r="Q15" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
       <c r="T15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="V15" s="13"/>
-      <c r="W15" s="13"/>
-    </row>
-    <row r="16" spans="1:23" ht="69" customHeight="1">
+      <c r="U15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="V15" s="17"/>
+      <c r="W15" s="17"/>
+    </row>
+    <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A16" s="11">
         <v>9</v>
       </c>
-      <c r="B16" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13" t="s">
+      <c r="B16" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="13"/>
+      <c r="E16" s="17"/>
       <c r="F16" s="8" t="s">
         <v>34</v>
       </c>
@@ -7446,40 +7531,40 @@
       <c r="L16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
+      <c r="M16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
       <c r="P16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="13"/>
-      <c r="S16" s="13"/>
+      <c r="Q16" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
       <c r="T16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="V16" s="22"/>
-      <c r="W16" s="23"/>
-    </row>
-    <row r="17" spans="1:23" ht="69" customHeight="1">
+      <c r="U16" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="V16" s="30"/>
+      <c r="W16" s="31"/>
+    </row>
+    <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="11">
         <v>10</v>
       </c>
-      <c r="B17" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="13"/>
+      <c r="B17" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="E17" s="17"/>
       <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
@@ -7501,40 +7586,40 @@
       <c r="L17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
+      <c r="M17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
       <c r="P17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="R17" s="13"/>
-      <c r="S17" s="13"/>
+      <c r="Q17" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
       <c r="T17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="13"/>
-      <c r="W17" s="13"/>
-    </row>
-    <row r="18" spans="1:23" ht="69" customHeight="1">
+      <c r="U17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="17"/>
+      <c r="W17" s="17"/>
+    </row>
+    <row r="18" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A18" s="11">
         <v>11</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13" t="s">
+      <c r="B18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="17"/>
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
@@ -7556,40 +7641,40 @@
       <c r="L18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
+      <c r="M18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
       <c r="P18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="R18" s="13"/>
-      <c r="S18" s="13"/>
+      <c r="Q18" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="R18" s="17"/>
+      <c r="S18" s="17"/>
       <c r="T18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="V18" s="13"/>
-      <c r="W18" s="13"/>
-    </row>
-    <row r="19" spans="1:23" ht="69" customHeight="1">
+      <c r="U18" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="V18" s="17"/>
+      <c r="W18" s="17"/>
+    </row>
+    <row r="19" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="11">
         <v>12</v>
       </c>
-      <c r="B19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13" t="s">
+      <c r="B19" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="13"/>
+      <c r="E19" s="17"/>
       <c r="F19" s="8" t="s">
         <v>34</v>
       </c>
@@ -7611,40 +7696,40 @@
       <c r="L19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
+      <c r="M19" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
       <c r="P19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="13"/>
+      <c r="Q19" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
       <c r="T19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="21" t="s">
-        <v>97</v>
-      </c>
-      <c r="V19" s="22"/>
-      <c r="W19" s="23"/>
-    </row>
-    <row r="20" spans="1:23" ht="69" customHeight="1">
+      <c r="U19" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="V19" s="30"/>
+      <c r="W19" s="31"/>
+    </row>
+    <row r="20" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="11">
         <v>13</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="17"/>
+      <c r="D20" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="13"/>
+      <c r="E20" s="17"/>
       <c r="F20" s="8" t="s">
         <v>34</v>
       </c>
@@ -7666,150 +7751,150 @@
       <c r="L20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
+      <c r="M20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
       <c r="P20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="R20" s="13"/>
-      <c r="S20" s="13"/>
+      <c r="Q20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
       <c r="T20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V20" s="13"/>
-      <c r="W20" s="13"/>
-    </row>
-    <row r="21" spans="1:23" ht="69" customHeight="1">
+      <c r="U20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V20" s="17"/>
+      <c r="W20" s="17"/>
+    </row>
+    <row r="21" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A21" s="11">
         <v>14</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q21" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q21" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="R21" s="13"/>
-      <c r="S21" s="13"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
       <c r="T21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V21" s="13"/>
-      <c r="W21" s="13"/>
-    </row>
-    <row r="22" spans="1:23" ht="69" customHeight="1">
+      <c r="U21" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V21" s="17"/>
+      <c r="W21" s="17"/>
+    </row>
+    <row r="22" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A22" s="11">
         <v>15</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="17"/>
+      <c r="F22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q22" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
       <c r="T22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-    </row>
-    <row r="23" spans="1:23" ht="69" customHeight="1">
+      <c r="U22" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V22" s="17"/>
+      <c r="W22" s="17"/>
+    </row>
+    <row r="23" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A23" s="12">
         <v>16</v>
       </c>
-      <c r="B23" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13" t="s">
+      <c r="B23" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="13"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="8" t="s">
         <v>34</v>
       </c>
@@ -7831,40 +7916,40 @@
       <c r="L23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="13"/>
-      <c r="O23" s="13"/>
+      <c r="M23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
       <c r="P23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="R23" s="13"/>
-      <c r="S23" s="13"/>
+      <c r="Q23" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
       <c r="T23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-    </row>
-    <row r="24" spans="1:23" ht="69" customHeight="1">
+      <c r="U23" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="V23" s="17"/>
+      <c r="W23" s="17"/>
+    </row>
+    <row r="24" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A24" s="11">
         <v>17</v>
       </c>
-      <c r="B24" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="E24" s="13"/>
+      <c r="B24" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="17"/>
       <c r="F24" s="8" t="s">
         <v>34</v>
       </c>
@@ -7886,27 +7971,27 @@
       <c r="L24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="13"/>
+      <c r="M24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
       <c r="P24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q24" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="R24" s="13"/>
-      <c r="S24" s="13"/>
+      <c r="Q24" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
       <c r="T24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="13" t="s">
-        <v>159</v>
-      </c>
-      <c r="V24" s="13"/>
-      <c r="W24" s="13"/>
+      <c r="U24" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="V24" s="17"/>
+      <c r="W24" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="107">
@@ -7919,6 +8004,7 @@
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="U20:W20"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="D24:E24"/>
     <mergeCell ref="M24:O24"/>
@@ -7934,7 +8020,6 @@
     <mergeCell ref="M23:O23"/>
     <mergeCell ref="Q23:S23"/>
     <mergeCell ref="U23:W23"/>
-    <mergeCell ref="U20:W20"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="M19:O19"/>

--- a/document/【ファイルサーバ課題】画面入出力項目一覧.xlsx
+++ b/document/【ファイルサーバ課題】画面入出力項目一覧.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD96596-D882-40CF-8413-501555B12054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="836" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="836" activeTab="2" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
   </bookViews>
   <sheets>
     <sheet name="更新履歴" sheetId="6" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <sheet name="ファイルサーバ画面" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1911,25 +1910,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2269,7 +2268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{592945A2-2618-4B24-8F14-DE43431AC7E5}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2524,23 +2523,23 @@
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
@@ -2553,29 +2552,29 @@
       <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="24"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
@@ -2588,31 +2587,31 @@
       <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="22">
         <v>44176</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="24"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
@@ -2625,29 +2624,29 @@
       <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="24"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
@@ -2660,12 +2659,12 @@
       <c r="S4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="22">
         <v>44179</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.65">
       <c r="A6" s="20" t="s">
@@ -3298,71 +3297,24 @@
       <c r="W17" s="17"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
     <mergeCell ref="F18:H19"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="M8:O8"/>
@@ -3379,11 +3331,58 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U16:W16"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3395,30 +3394,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696E3D25-3FFC-4F0F-9334-143E6185B6DD}">
   <dimension ref="A1:W22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
@@ -3431,29 +3430,29 @@
       <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="24"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
@@ -3466,31 +3465,31 @@
       <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="22">
         <v>44176</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="24"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
@@ -3503,29 +3502,29 @@
       <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="24"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
@@ -3538,12 +3537,12 @@
       <c r="S4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="22">
         <v>44179</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.65">
       <c r="A6" s="20" t="s">
@@ -4452,74 +4451,22 @@
     </row>
   </sheetData>
   <mergeCells count="97">
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="U6:W7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
@@ -4533,22 +4480,74 @@
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="U22:W22"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4566,23 +4565,23 @@
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
@@ -4595,29 +4594,29 @@
       <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="24"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
@@ -4630,31 +4629,31 @@
       <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="22">
         <v>44176</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="24"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
@@ -4667,29 +4666,29 @@
       <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="24"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
@@ -4702,12 +4701,12 @@
       <c r="S4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="22">
         <v>44179</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.65">
       <c r="A6" s="20" t="s">
@@ -5836,42 +5835,63 @@
     </row>
   </sheetData>
   <mergeCells count="117">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="U6:W7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="U15:W15"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D26:E26"/>
@@ -5896,63 +5916,42 @@
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="M19:O19"/>
     <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="U6:W7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="U24:W24"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5970,23 +5969,23 @@
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
@@ -5999,29 +5998,29 @@
       <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="24"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
@@ -6034,31 +6033,31 @@
       <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="22">
         <v>44176</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="24"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
@@ -6071,29 +6070,29 @@
       <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="21" t="s">
         <v>174</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="24"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
@@ -6106,12 +6105,12 @@
       <c r="S4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="22">
         <v>44181</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.65">
       <c r="A6" s="20" t="s">
@@ -6745,11 +6744,57 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U6:W7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U13:W13"/>
     <mergeCell ref="U16:W16"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
@@ -6766,57 +6811,11 @@
     <mergeCell ref="U14:W14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U6:W7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U17:W17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6835,23 +6834,23 @@
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
-      <c r="N1" s="19"/>
-      <c r="O1" s="24"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="19"/>
       <c r="P1" s="20" t="s">
         <v>9</v>
       </c>
@@ -6864,29 +6863,29 @@
       <c r="S1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="22"/>
-      <c r="V1" s="22"/>
-      <c r="W1" s="22"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="24"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="19"/>
       <c r="P2" s="20" t="s">
         <v>11</v>
       </c>
@@ -6899,31 +6898,31 @@
       <c r="S2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="21">
+      <c r="T2" s="22">
         <v>44176</v>
       </c>
-      <c r="U2" s="22"/>
-      <c r="V2" s="22"/>
-      <c r="W2" s="22"/>
+      <c r="U2" s="21"/>
+      <c r="V2" s="21"/>
+      <c r="W2" s="21"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="24"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="19"/>
       <c r="P3" s="20" t="s">
         <v>12</v>
       </c>
@@ -6936,29 +6935,29 @@
       <c r="S3" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="22" t="s">
+      <c r="T3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
+      <c r="U3" s="21"/>
+      <c r="V3" s="21"/>
+      <c r="W3" s="21"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="19"/>
-      <c r="O4" s="24"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="18"/>
+      <c r="O4" s="19"/>
       <c r="P4" s="20" t="s">
         <v>13</v>
       </c>
@@ -6971,12 +6970,12 @@
       <c r="S4" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="21">
+      <c r="T4" s="22">
         <v>44179</v>
       </c>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
+      <c r="U4" s="21"/>
+      <c r="V4" s="21"/>
+      <c r="W4" s="21"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.65">
       <c r="A6" s="20" t="s">
@@ -7995,66 +7994,33 @@
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="U6:W7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="T6:T7"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="M12:O12"/>
@@ -8075,33 +8041,66 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="U11:W11"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="U6:W7"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="U20:W20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/document/【ファイルサーバ課題】画面入出力項目一覧.xlsx
+++ b/document/【ファイルサーバ課題】画面入出力項目一覧.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7FD96596-D882-40CF-8413-501555B12054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{7FD96596-D882-40CF-8413-501555B12054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C52EA486-A795-4B09-BD09-3D36A4282658}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13320" tabRatio="836" activeTab="2" xr2:uid="{33980DD7-076D-435C-8F92-9B20D7ED1BBE}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1230" uniqueCount="186">
   <si>
     <t>更新履歴</t>
     <rPh sb="0" eb="2">
@@ -1073,19 +1073,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>入力されたユーザIDは既に存在しています</t>
-    <rPh sb="0" eb="2">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ソンザイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザIDは半角英数字254文字以内で入力してください</t>
     <rPh sb="6" eb="11">
       <t>ハンカクエイスウジ</t>
@@ -1112,32 +1099,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザ名が入力されていません</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザ名は半角英数字32文字以内で入力してください</t>
-    <rPh sb="3" eb="4">
-      <t>メイ</t>
-    </rPh>
-    <rPh sb="5" eb="10">
-      <t>ハンカクエイスウジ</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>モジイナイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ名が未入力の場合に、入力欄下にエラーメッセージ出力</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -1173,16 +1134,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワードと確認用パスワードが異なります</t>
-    <rPh sb="6" eb="9">
-      <t>カクニンヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワードが32文字以上の場合に、入力欄下にエラーメッセージ出力</t>
     <rPh sb="8" eb="12">
       <t>モジイジョウ</t>
@@ -1196,47 +1147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>パスワードと確認用パスワードが異なる場合に、入力欄下にエラーメッセージ出力</t>
-    <rPh sb="6" eb="8">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="16">
-      <t>コト</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>ニュウリョク</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>シタ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シュツリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>現在と同じユーザ名です</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ユーザ名が現在と同じ場合に、入力欄下にエラーメッセージ出力</t>
     <rPh sb="3" eb="4">
       <t>メイ</t>
@@ -1259,16 +1169,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>現在と同じパスワードです</t>
-    <rPh sb="0" eb="2">
-      <t>ゲンザイ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オナ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>パスワードが現在と同じ場合に、入力欄下にエラーメッセージ出力</t>
     <rPh sb="6" eb="8">
       <t>ゲンザイ</t>
@@ -1286,13 +1186,6 @@
   </si>
   <si>
     <t>ポップアップ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザが登録されました</t>
-    <rPh sb="4" eb="6">
-      <t>トウロク</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1632,19 +1525,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザIDが既に存在する場合に、入力欄下にエラーメッセージ出力</t>
-    <rPh sb="6" eb="7">
-      <t>スデ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ソンザイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>石川</t>
     <rPh sb="0" eb="2">
       <t>イシカワ</t>
@@ -1713,6 +1593,226 @@
     </rPh>
     <rPh sb="49" eb="51">
       <t>サクジョシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入力されていません</t>
+    <rPh sb="0" eb="2">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードが一致しません</t>
+    <rPh sb="6" eb="8">
+      <t>イッチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザIDが既に存在する場合に、入力フォーム上にエラーメッセージ出力</t>
+    <rPh sb="6" eb="7">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名が既に存在する場合に、入力フォーム上にエラーメッセージ出力</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードと確認用パスワードが異なる場合に、入力フォーム上にエラーメッセージ出力</t>
+    <rPh sb="6" eb="8">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ウエ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>登録が完了しました</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字32文字以内で入力してください</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="7" eb="11">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半角英数字254文字以内で入力してください</t>
+    <rPh sb="0" eb="5">
+      <t>ハンカクエイスウジ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>モジイナイ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Email形式で入力してください</t>
+    <rPh sb="5" eb="7">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザIDがeメール形式以外で入力された場合、入力欄下にエラーメッセージ出力</t>
+    <rPh sb="10" eb="12">
+      <t>ケイシキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>イガイ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ニュウリョク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>ニュウリョクランシタ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>シュツリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ名に変更がありません</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスワードに変更がありません</t>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このユーザIDは既に使用されています</t>
+    <rPh sb="8" eb="9">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このユーザ名は既に使用されています</t>
+    <rPh sb="5" eb="6">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>スデ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ登録画面
+ユーザ情報更新画面</t>
+    <rPh sb="3" eb="7">
+      <t>トウロクガメン</t>
+    </rPh>
+    <rPh sb="11" eb="17">
+      <t>ジョウホウコウシンガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バリデーションエラーメッセージの表記を修正
+‐アノテーション毎にメッセージを共通化
+‐ユーザ名重複エラーのメッセージを追加</t>
+    <rPh sb="16" eb="18">
+      <t>ヒョウキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ゴト</t>
+    </rPh>
+    <rPh sb="38" eb="41">
+      <t>キョウツウカ</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1855,7 +1955,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1910,25 +2010,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2269,7 +2378,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
@@ -2334,7 +2443,7 @@
         <v>96</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="36.9" x14ac:dyDescent="0.65">
@@ -2343,27 +2452,35 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C5" s="13">
         <v>44181</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.65">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="55.3" x14ac:dyDescent="0.65">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="4"/>
+      <c r="B6" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="19">
+        <v>44193</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.65">
       <c r="A7" s="2">
@@ -2517,210 +2634,210 @@
   <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
+      <selection activeCell="P1" sqref="P1:S2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="24">
         <v>44176</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="24">
         <v>44179</v>
       </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20" t="s">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
@@ -2730,34 +2847,34 @@
       <c r="H7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
@@ -2779,40 +2896,40 @@
       <c r="L8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="Q8" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="17" t="s">
-        <v>159</v>
-      </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
+      <c r="U8" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
@@ -2834,40 +2951,40 @@
       <c r="L9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="Q9" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
       <c r="T9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
+      <c r="U9" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="6">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
@@ -2889,40 +3006,40 @@
       <c r="L10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="M10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
       <c r="T10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="U10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="12">
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
@@ -2944,40 +3061,40 @@
       <c r="L11" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="M11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
       <c r="T11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
+      <c r="U11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="12">
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
@@ -2999,40 +3116,40 @@
       <c r="L12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="M12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="Q12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
       <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="12">
         <v>6</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="B13" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
@@ -3054,40 +3171,40 @@
       <c r="L13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="M13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
+      <c r="Q13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="U13" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="12">
         <v>7</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -3109,40 +3226,40 @@
       <c r="L14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="M14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
+      <c r="Q14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
       <c r="T14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="12">
         <v>8</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
@@ -3164,40 +3281,40 @@
       <c r="L15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="M15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
+      <c r="Q15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
       <c r="T15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="U15" s="20" t="s">
         <v>128</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A16" s="12">
         <v>9</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="8" t="s">
         <v>34</v>
       </c>
@@ -3219,40 +3336,40 @@
       <c r="L16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="M16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+      <c r="Q16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
       <c r="T16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="17" t="s">
+      <c r="U16" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="6">
         <v>9</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
@@ -3274,47 +3391,94 @@
       <c r="L17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="M17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
+      <c r="Q17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
       <c r="T17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="17" t="s">
+      <c r="U17" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="F18" s="24" t="s">
+      <c r="F18" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="73">
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="U6:W7"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="D8:E8"/>
     <mergeCell ref="F18:H19"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="M8:O8"/>
@@ -3331,58 +3495,11 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="M14:O14"/>
     <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="U6:W7"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,213 +3509,213 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{696E3D25-3FFC-4F0F-9334-143E6185B6DD}">
-  <dimension ref="A1:W22"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="24">
         <v>44176</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="T3" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="22">
-        <v>44179</v>
-      </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="T4" s="24">
+        <v>44193</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20" t="s">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
@@ -3608,34 +3725,35 @@
       <c r="H7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="6">
+        <f>ROW(A8)-7</f>
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
@@ -3657,40 +3775,41 @@
       <c r="L8" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="17" t="s">
+      <c r="M8" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="Q8" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U8" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
+      <c r="U8" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="6">
+      <c r="A9" s="17">
+        <f t="shared" ref="A9:A24" si="0">ROW(A9)-7</f>
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
@@ -3712,40 +3831,41 @@
       <c r="L9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="17" t="s">
-        <v>168</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="Q9" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
       <c r="T9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U9" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
+      <c r="U9" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="6">
+      <c r="A10" s="17">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
@@ -3767,40 +3887,41 @@
       <c r="L10" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="Q10" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
       <c r="T10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U10" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="U10" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A11" s="6">
+      <c r="A11" s="17">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
@@ -3822,40 +3943,41 @@
       <c r="L11" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M11" s="17" t="s">
+      <c r="M11" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="Q11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
       <c r="T11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="U11" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="6">
+      <c r="A12" s="17">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
@@ -3877,40 +3999,41 @@
       <c r="L12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="M12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
       <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="12">
+      <c r="A13" s="17">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
@@ -3932,40 +4055,41 @@
       <c r="L13" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="M13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="U13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="12">
+      <c r="A14" s="17">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
+      <c r="B14" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -3987,40 +4111,41 @@
       <c r="L14" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="M14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q14" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="26"/>
-      <c r="S14" s="27"/>
+      <c r="Q14" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R14" s="29"/>
+      <c r="S14" s="30"/>
       <c r="T14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
+      <c r="U14" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="12">
+      <c r="A15" s="17">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="B15" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
@@ -4042,40 +4167,41 @@
       <c r="L15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="M15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q15" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R15" s="26"/>
-      <c r="S15" s="27"/>
+      <c r="Q15" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R15" s="29"/>
+      <c r="S15" s="30"/>
       <c r="T15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="U15" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="12">
+      <c r="A16" s="17">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B16" s="17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="B16" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="8" t="s">
         <v>34</v>
       </c>
@@ -4097,40 +4223,41 @@
       <c r="L16" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="M16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+      <c r="Q16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
       <c r="T16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
+      <c r="U16" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
     </row>
     <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="12">
+      <c r="A17" s="17">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="B17" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
@@ -4140,52 +4267,53 @@
       <c r="H17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="I17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="26"/>
-      <c r="S17" s="27"/>
+      <c r="Q17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
       <c r="T17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="U17" s="20" t="s">
+        <v>132</v>
+      </c>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
     </row>
     <row r="18" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="12">
+      <c r="A18" s="17">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B18" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
+      <c r="B18" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
@@ -4207,40 +4335,41 @@
       <c r="L18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="M18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
+      <c r="Q18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
       <c r="T18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
+      <c r="U18" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
     </row>
     <row r="19" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="12">
+      <c r="A19" s="17">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B19" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
+      <c r="B19" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="8" t="s">
         <v>34</v>
       </c>
@@ -4250,52 +4379,53 @@
       <c r="H19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="I19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q19" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
+      <c r="Q19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="29"/>
+      <c r="S19" s="30"/>
       <c r="T19" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U19" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
+      <c r="U19" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
     </row>
     <row r="20" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A20" s="12">
+      <c r="A20" s="17">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
+      <c r="B20" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="8" t="s">
         <v>34</v>
       </c>
@@ -4317,40 +4447,41 @@
       <c r="L20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="M20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
       <c r="P20" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
+      <c r="Q20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
       <c r="T20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="U20" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="12">
+      <c r="A21" s="17">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B21" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
+      <c r="B21" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="8" t="s">
         <v>34</v>
       </c>
@@ -4372,40 +4503,41 @@
       <c r="L21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="M21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
+      <c r="Q21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
       <c r="T21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
+      <c r="U21" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="12">
+      <c r="A22" s="17">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B22" s="17" t="s">
-        <v>146</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E22" s="17"/>
+      <c r="B22" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="20"/>
       <c r="F22" s="8" t="s">
         <v>34</v>
       </c>
@@ -4427,46 +4559,220 @@
       <c r="L22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="M22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
       <c r="P22" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
+      <c r="Q22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
       <c r="T22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
+      <c r="U22" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+    </row>
+    <row r="23" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A23" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+    </row>
+    <row r="24" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A24" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D9:E9"/>
+  <mergeCells count="107">
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="U12:W12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="U11:W11"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="U9:W9"/>
     <mergeCell ref="U6:W7"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
@@ -4480,59 +4786,1416 @@
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="U11:W11"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="U12:W12"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A3:O4"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C63F2CF-CA1E-4333-AAE3-AD2E46A27284}">
+  <dimension ref="A1:W27"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6:T7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A1" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="R1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="R2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="T2" s="24">
+        <v>44176</v>
+      </c>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="R3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="S3" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="T3" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="R4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="S4" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="24">
+        <v>44193</v>
+      </c>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="J6" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="M6" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="U6" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
+    </row>
+    <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A8" s="6">
+        <f>ROW(A8)-7</f>
+        <v>1</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q8" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U8" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+    </row>
+    <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A9" s="17">
+        <f t="shared" ref="A9:A27" si="0">ROW(A9)-7</f>
+        <v>2</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="M9" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>153</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
+    </row>
+    <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A10" s="17">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M10" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+    </row>
+    <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A11" s="17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q11" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
+      <c r="T11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="U11" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
+    </row>
+    <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A12" s="17">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+    </row>
+    <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A13" s="17">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+      <c r="P13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
+      <c r="T13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
+    </row>
+    <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A14" s="17">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="20"/>
+      <c r="F14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q14" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+    </row>
+    <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A15" s="17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q15" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
+      <c r="T15" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
+    </row>
+    <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A16" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="M16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
+      <c r="P16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
+      <c r="T16" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U16" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="V16" s="20"/>
+      <c r="W16" s="20"/>
+    </row>
+    <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A17" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q17" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
+      <c r="T17" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U17" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
+    </row>
+    <row r="18" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A18" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="20"/>
+      <c r="F18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
+      <c r="P18" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R18" s="29"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U18" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
+    </row>
+    <row r="19" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A19" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="20"/>
+      <c r="F19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
+      <c r="P19" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q19" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R19" s="29"/>
+      <c r="S19" s="30"/>
+      <c r="T19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U19" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="V19" s="20"/>
+      <c r="W19" s="20"/>
+    </row>
+    <row r="20" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A20" s="17">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="20"/>
+      <c r="F20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
+      <c r="P20" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
+      <c r="T20" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U20" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
+    </row>
+    <row r="21" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A21" s="17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="20"/>
+      <c r="F21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="M21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q21" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="29"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U21" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
+    </row>
+    <row r="22" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A22" s="17">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="20"/>
+      <c r="F22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U22" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
+    </row>
+    <row r="23" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A23" s="17">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="20"/>
+      <c r="F23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U23" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
+    </row>
+    <row r="24" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A24" s="17">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="20"/>
+      <c r="F24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U24" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+    </row>
+    <row r="25" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A25" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="20"/>
+      <c r="F25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q25" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U25" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+    </row>
+    <row r="26" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A26" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="20"/>
+      <c r="F26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M26" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N26" s="20"/>
+      <c r="O26" s="20"/>
+      <c r="P26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q26" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R26" s="20"/>
+      <c r="S26" s="20"/>
+      <c r="T26" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U26" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="V26" s="20"/>
+      <c r="W26" s="20"/>
+    </row>
+    <row r="27" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
+      <c r="A27" s="17">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>141</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E27" s="20"/>
+      <c r="F27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="L27" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="M27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q27" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R27" s="20"/>
+      <c r="S27" s="20"/>
+      <c r="T27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="U27" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="V27" s="20"/>
+      <c r="W27" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="122">
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="U26:W26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="Q25:S25"/>
+    <mergeCell ref="U25:W25"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="U19:W19"/>
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="M18:O18"/>
     <mergeCell ref="Q18:S18"/>
     <mergeCell ref="U18:W18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="U22:W22"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="M20:O20"/>
@@ -4543,1321 +6206,40 @@
     <mergeCell ref="M21:O21"/>
     <mergeCell ref="Q21:S21"/>
     <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="U22:W22"/>
-  </mergeCells>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C63F2CF-CA1E-4333-AAE3-AD2E46A27284}">
-  <dimension ref="A1:W26"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8:C8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
-  <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="R1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="T1" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="R2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="T2" s="22">
-        <v>44176</v>
-      </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="S3" s="20" t="s">
-        <v>12</v>
-      </c>
-      <c r="T3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="S4" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="22">
-        <v>44179</v>
-      </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A6" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="K6" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="U6" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
-    </row>
-    <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A8" s="6">
-        <v>1</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L8" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q8" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-    </row>
-    <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A9" s="10">
-        <v>2</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E9" s="17"/>
-      <c r="F9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="L9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="M9" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-    </row>
-    <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A10" s="10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-    </row>
-    <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A11" s="10">
-        <v>4</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="U11" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-    </row>
-    <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A12" s="10">
-        <v>5</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-    </row>
-    <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A13" s="10">
-        <v>6</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
-      <c r="P13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q13" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
-      <c r="T13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
-    </row>
-    <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A14" s="10">
-        <v>7</v>
-      </c>
-      <c r="B14" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="17"/>
-      <c r="F14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
-      <c r="P14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
-      <c r="T14" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U14" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
-    </row>
-    <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A15" s="10">
-        <v>8</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="17"/>
-      <c r="F15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
-      <c r="P15" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q15" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
-      <c r="T15" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U15" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
-    </row>
-    <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A16" s="10">
-        <v>9</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="L16" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
-      <c r="T16" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U16" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-    </row>
-    <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A17" s="12">
-        <v>10</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="17"/>
-      <c r="F17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U17" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
-    </row>
-    <row r="18" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A18" s="12">
-        <v>11</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="17"/>
-      <c r="F18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L18" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
-      <c r="P18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q18" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R18" s="26"/>
-      <c r="S18" s="27"/>
-      <c r="T18" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U18" s="17" t="s">
-        <v>142</v>
-      </c>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
-    </row>
-    <row r="19" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A19" s="12">
-        <v>12</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L19" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M19" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q19" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="R19" s="26"/>
-      <c r="S19" s="27"/>
-      <c r="T19" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U19" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-    </row>
-    <row r="20" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A20" s="12">
-        <v>13</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U20" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
-    </row>
-    <row r="21" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A21" s="12">
-        <v>14</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="17"/>
-      <c r="F21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L21" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
-      <c r="P21" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
-      <c r="T21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U21" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
-    </row>
-    <row r="22" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A22" s="12">
-        <v>15</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="17"/>
-      <c r="F22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L22" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
-      <c r="P22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
-      <c r="T22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U22" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
-    </row>
-    <row r="23" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A23" s="12">
-        <v>16</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="17"/>
-      <c r="F23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L23" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
-      <c r="P23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
-      <c r="T23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U23" s="17" t="s">
-        <v>139</v>
-      </c>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
-    </row>
-    <row r="24" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A24" s="12">
-        <v>17</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="17"/>
-      <c r="F24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L24" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
-      <c r="P24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
-      <c r="T24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U24" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
-    </row>
-    <row r="25" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A25" s="12">
-        <v>18</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="17"/>
-      <c r="D25" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="17"/>
-      <c r="F25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N25" s="17"/>
-      <c r="O25" s="17"/>
-      <c r="P25" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="17"/>
-      <c r="S25" s="17"/>
-      <c r="T25" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U25" s="17" t="s">
-        <v>150</v>
-      </c>
-      <c r="V25" s="17"/>
-      <c r="W25" s="17"/>
-    </row>
-    <row r="26" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
-      <c r="A26" s="10">
-        <v>19</v>
-      </c>
-      <c r="B26" s="17" t="s">
-        <v>149</v>
-      </c>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E26" s="17"/>
-      <c r="F26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="M26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N26" s="17"/>
-      <c r="O26" s="17"/>
-      <c r="P26" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q26" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R26" s="17"/>
-      <c r="S26" s="17"/>
-      <c r="T26" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U26" s="17" t="s">
-        <v>151</v>
-      </c>
-      <c r="V26" s="17"/>
-      <c r="W26" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="117">
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="T6:T7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="Q27:S27"/>
+    <mergeCell ref="U27:W27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
     <mergeCell ref="U6:W7"/>
     <mergeCell ref="K6:K7"/>
     <mergeCell ref="L6:L7"/>
@@ -5882,76 +6264,29 @@
     <mergeCell ref="M10:O10"/>
     <mergeCell ref="Q10:S10"/>
     <mergeCell ref="U9:W9"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="U26:W26"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="U20:W20"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="Q25:S25"/>
-    <mergeCell ref="U25:W25"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A3:O4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5963,210 +6298,210 @@
   <dimension ref="A1:W17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="D16" sqref="D16:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="24">
         <v>44176</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20" t="s">
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="T3" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="24">
         <v>44181</v>
       </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20" t="s">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
@@ -6176,34 +6511,34 @@
       <c r="H7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
@@ -6225,40 +6560,40 @@
       <c r="L8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="M8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="Q8" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
+      <c r="U8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="12">
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
@@ -6280,40 +6615,40 @@
       <c r="L9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="M9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="17" t="s">
-        <v>163</v>
-      </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="Q9" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
       <c r="T9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
+      <c r="U9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="12">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
-        <v>177</v>
-      </c>
-      <c r="E10" s="17"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E10" s="20"/>
       <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
@@ -6335,40 +6670,40 @@
       <c r="L10" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="M10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="17" t="s">
-        <v>176</v>
-      </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="Q10" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
       <c r="T10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="U10" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="6">
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
@@ -6390,40 +6725,40 @@
       <c r="L11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="M11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
       <c r="T11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="U11" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="6">
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
@@ -6445,40 +6780,40 @@
       <c r="L12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="M12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
       <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="6">
         <v>6</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
@@ -6500,40 +6835,40 @@
       <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="M13" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="6">
         <v>7</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -6555,40 +6890,40 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="M14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="Q14" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
       <c r="T14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="17" t="s">
+      <c r="U14" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V14" s="17"/>
-      <c r="W14" s="17"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
     </row>
     <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="12">
         <v>8</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
@@ -6610,40 +6945,40 @@
       <c r="L15" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="M15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="17" t="s">
+      <c r="Q15" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
       <c r="T15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="U15" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A16" s="15">
         <v>9</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28" t="s">
+      <c r="B16" s="31" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="E16" s="28"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="16" t="s">
         <v>34</v>
       </c>
@@ -6665,40 +7000,40 @@
       <c r="L16" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
+      <c r="M16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
       <c r="P16" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
+      <c r="Q16" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="R16" s="31"/>
+      <c r="S16" s="31"/>
       <c r="T16" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
+      <c r="U16" s="31" t="s">
+        <v>144</v>
+      </c>
+      <c r="V16" s="31"/>
+      <c r="W16" s="31"/>
     </row>
     <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="12">
         <v>10</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E17" s="17"/>
+      <c r="B17" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E17" s="20"/>
       <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
@@ -6720,45 +7055,68 @@
       <c r="L17" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="M17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
+      <c r="Q17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
       <c r="T17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="U17" s="20" t="s">
+        <v>147</v>
+      </c>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="Q9:S9"/>
+    <mergeCell ref="U9:W9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="Q10:S10"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U13:W13"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q12:S12"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="Q11:S11"/>
     <mergeCell ref="U12:W12"/>
     <mergeCell ref="U11:W11"/>
     <mergeCell ref="U6:W7"/>
@@ -6775,47 +7133,24 @@
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="Q12:S12"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="D11:E11"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="U16:W16"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="Q9:S9"/>
-    <mergeCell ref="U9:W9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="Q10:S10"/>
-    <mergeCell ref="U10:W10"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A3:O4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6827,211 +7162,211 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77F0C62A-BDF5-4E3A-BFAF-FE3928FFE9FD}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:C11"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:O4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.45" x14ac:dyDescent="0.65"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="19"/>
-      <c r="P1" s="20" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="20" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="Q2" s="20" t="s">
+      <c r="Q2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="R2" s="20" t="s">
+      <c r="R2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="20" t="s">
+      <c r="S2" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="24">
         <v>44176</v>
       </c>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A3" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="19"/>
-      <c r="P3" s="20" t="s">
+      <c r="A3" s="22" t="s">
+        <v>163</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="20" t="s">
+      <c r="Q3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="S3" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="U3" s="21"/>
-      <c r="V3" s="21"/>
-      <c r="W3" s="21"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="18"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="20" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="T4" s="22">
+      <c r="T4" s="24">
         <v>44179</v>
       </c>
-      <c r="U4" s="21"/>
-      <c r="V4" s="21"/>
-      <c r="W4" s="21"/>
+      <c r="U4" s="25"/>
+      <c r="V4" s="25"/>
+      <c r="W4" s="25"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20" t="s">
+      <c r="E6" s="23"/>
+      <c r="F6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="23" t="s">
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="J6" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="K6" s="20" t="s">
+      <c r="K6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="M6" s="20" t="s">
+      <c r="M6" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20" t="s">
+      <c r="N6" s="23"/>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20" t="s">
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="U6" s="20" t="s">
+      <c r="U6" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="20"/>
-      <c r="W6" s="20"/>
+      <c r="V6" s="23"/>
+      <c r="W6" s="23"/>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.65">
-      <c r="A7" s="20"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
+      <c r="A7" s="23"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="5" t="s">
         <v>25</v>
       </c>
@@ -7041,34 +7376,34 @@
       <c r="H7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-      <c r="U7" s="20"/>
-      <c r="V7" s="20"/>
-      <c r="W7" s="20"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="O7" s="23"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="23"/>
+      <c r="U7" s="23"/>
+      <c r="V7" s="23"/>
+      <c r="W7" s="23"/>
     </row>
     <row r="8" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A8" s="6">
         <v>1</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="17"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="8" t="s">
         <v>34</v>
       </c>
@@ -7090,40 +7425,40 @@
       <c r="L8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M8" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
+      <c r="M8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
       <c r="P8" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q8" s="17" t="s">
+      <c r="Q8" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
       <c r="T8" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U8" s="17" t="s">
+      <c r="U8" s="20" t="s">
         <v>110</v>
       </c>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
     </row>
     <row r="9" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A9" s="6">
         <v>2</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17" t="s">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="17"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="8" t="s">
         <v>34</v>
       </c>
@@ -7145,40 +7480,40 @@
       <c r="L9" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M9" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
+      <c r="M9" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
       <c r="P9" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q9" s="17" t="s">
+      <c r="Q9" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="20"/>
       <c r="T9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U9" s="17" t="s">
+      <c r="U9" s="20" t="s">
         <v>111</v>
       </c>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="20"/>
     </row>
     <row r="10" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A10" s="11">
         <v>3</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E10" s="17"/>
+      <c r="E10" s="20"/>
       <c r="F10" s="8" t="s">
         <v>34</v>
       </c>
@@ -7200,40 +7535,40 @@
       <c r="L10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M10" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
+      <c r="M10" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
       <c r="P10" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q10" s="17" t="s">
+      <c r="Q10" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
       <c r="T10" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U10" s="17" t="s">
+      <c r="U10" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
     </row>
     <row r="11" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A11" s="11">
         <v>4</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="E11" s="17"/>
+      <c r="E11" s="20"/>
       <c r="F11" s="8" t="s">
         <v>34</v>
       </c>
@@ -7255,40 +7590,40 @@
       <c r="L11" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="M11" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
+      <c r="M11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
       <c r="P11" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q11" s="17" t="s">
+      <c r="Q11" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="20"/>
       <c r="T11" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U11" s="17" t="s">
+      <c r="U11" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="20"/>
     </row>
     <row r="12" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A12" s="11">
         <v>5</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17" t="s">
+      <c r="C12" s="20"/>
+      <c r="D12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="20"/>
       <c r="F12" s="8" t="s">
         <v>34</v>
       </c>
@@ -7310,40 +7645,40 @@
       <c r="L12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
+      <c r="M12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
       <c r="P12" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="17" t="s">
+      <c r="Q12" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
       <c r="T12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U12" s="17" t="s">
+      <c r="U12" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
     </row>
     <row r="13" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A13" s="11">
         <v>6</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="17"/>
+      <c r="E13" s="20"/>
       <c r="F13" s="8" t="s">
         <v>34</v>
       </c>
@@ -7365,40 +7700,40 @@
       <c r="L13" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M13" s="17" t="s">
+      <c r="M13" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="N13" s="17"/>
-      <c r="O13" s="17"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
       <c r="P13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q13" s="17" t="s">
+      <c r="Q13" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="R13" s="17"/>
-      <c r="S13" s="17"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="20"/>
       <c r="T13" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="V13" s="17"/>
-      <c r="W13" s="17"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="20"/>
     </row>
     <row r="14" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A14" s="11">
         <v>7</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17" t="s">
+      <c r="C14" s="20"/>
+      <c r="D14" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="17"/>
+      <c r="E14" s="20"/>
       <c r="F14" s="8" t="s">
         <v>34</v>
       </c>
@@ -7420,40 +7755,40 @@
       <c r="L14" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M14" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N14" s="17"/>
-      <c r="O14" s="17"/>
+      <c r="M14" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
       <c r="P14" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q14" s="17" t="s">
+      <c r="Q14" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="R14" s="17"/>
-      <c r="S14" s="17"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
       <c r="T14" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U14" s="29" t="s">
+      <c r="U14" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="V14" s="30"/>
-      <c r="W14" s="31"/>
+      <c r="V14" s="33"/>
+      <c r="W14" s="34"/>
     </row>
     <row r="15" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A15" s="11">
         <v>8</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="17"/>
+      <c r="E15" s="20"/>
       <c r="F15" s="8" t="s">
         <v>34</v>
       </c>
@@ -7475,40 +7810,40 @@
       <c r="L15" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M15" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N15" s="17"/>
-      <c r="O15" s="17"/>
+      <c r="M15" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
       <c r="P15" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q15" s="17" t="s">
+      <c r="Q15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="R15" s="17"/>
-      <c r="S15" s="17"/>
+      <c r="R15" s="20"/>
+      <c r="S15" s="20"/>
       <c r="T15" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U15" s="17" t="s">
+      <c r="U15" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="V15" s="17"/>
-      <c r="W15" s="17"/>
+      <c r="V15" s="20"/>
+      <c r="W15" s="20"/>
     </row>
     <row r="16" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A16" s="11">
         <v>9</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="17"/>
+      <c r="E16" s="20"/>
       <c r="F16" s="8" t="s">
         <v>34</v>
       </c>
@@ -7530,40 +7865,40 @@
       <c r="L16" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M16" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
+      <c r="M16" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N16" s="20"/>
+      <c r="O16" s="20"/>
       <c r="P16" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q16" s="17" t="s">
+      <c r="Q16" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="R16" s="17"/>
-      <c r="S16" s="17"/>
+      <c r="R16" s="20"/>
+      <c r="S16" s="20"/>
       <c r="T16" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U16" s="29" t="s">
+      <c r="U16" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="V16" s="30"/>
-      <c r="W16" s="31"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="34"/>
     </row>
     <row r="17" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A17" s="11">
         <v>10</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="20"/>
+      <c r="D17" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="E17" s="17"/>
+      <c r="E17" s="20"/>
       <c r="F17" s="8" t="s">
         <v>34</v>
       </c>
@@ -7585,40 +7920,40 @@
       <c r="L17" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
+      <c r="M17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
       <c r="P17" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q17" s="17" t="s">
+      <c r="Q17" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
+      <c r="R17" s="20"/>
+      <c r="S17" s="20"/>
       <c r="T17" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U17" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="V17" s="17"/>
-      <c r="W17" s="17"/>
+      <c r="U17" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="V17" s="20"/>
+      <c r="W17" s="20"/>
     </row>
     <row r="18" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A18" s="11">
         <v>11</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17" t="s">
+      <c r="C18" s="20"/>
+      <c r="D18" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="17"/>
+      <c r="E18" s="20"/>
       <c r="F18" s="8" t="s">
         <v>34</v>
       </c>
@@ -7640,40 +7975,40 @@
       <c r="L18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M18" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" s="17"/>
-      <c r="O18" s="17"/>
+      <c r="M18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N18" s="20"/>
+      <c r="O18" s="20"/>
       <c r="P18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q18" s="17" t="s">
+      <c r="Q18" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="R18" s="17"/>
-      <c r="S18" s="17"/>
+      <c r="R18" s="20"/>
+      <c r="S18" s="20"/>
       <c r="T18" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U18" s="17" t="s">
+      <c r="U18" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="V18" s="17"/>
-      <c r="W18" s="17"/>
+      <c r="V18" s="20"/>
+      <c r="W18" s="20"/>
     </row>
     <row r="19" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A19" s="11">
         <v>12</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="20"/>
+      <c r="D19" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="17"/>
+      <c r="E19" s="20"/>
       <c r="F19" s="8" t="s">
         <v>34</v>
       </c>
@@ -7695,40 +8030,40 @@
       <c r="L19" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M19" s="17" t="s">
+      <c r="M19" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
+      <c r="N19" s="20"/>
+      <c r="O19" s="20"/>
       <c r="P19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q19" s="17" t="s">
+      <c r="Q19" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
+      <c r="R19" s="20"/>
+      <c r="S19" s="20"/>
       <c r="T19" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="U19" s="29" t="s">
+      <c r="U19" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="V19" s="30"/>
-      <c r="W19" s="31"/>
+      <c r="V19" s="33"/>
+      <c r="W19" s="34"/>
     </row>
     <row r="20" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A20" s="11">
         <v>13</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="17"/>
+      <c r="E20" s="20"/>
       <c r="F20" s="8" t="s">
         <v>34</v>
       </c>
@@ -7750,40 +8085,40 @@
       <c r="L20" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M20" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
+      <c r="M20" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N20" s="20"/>
+      <c r="O20" s="20"/>
       <c r="P20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q20" s="17" t="s">
+      <c r="Q20" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="R20" s="17"/>
-      <c r="S20" s="17"/>
+      <c r="R20" s="20"/>
+      <c r="S20" s="20"/>
       <c r="T20" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U20" s="17" t="s">
+      <c r="U20" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V20" s="17"/>
-      <c r="W20" s="17"/>
+      <c r="V20" s="20"/>
+      <c r="W20" s="20"/>
     </row>
     <row r="21" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A21" s="11">
         <v>14</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="20"/>
+      <c r="D21" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="17"/>
+      <c r="E21" s="20"/>
       <c r="F21" s="8" t="s">
         <v>34</v>
       </c>
@@ -7805,40 +8140,40 @@
       <c r="L21" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M21" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N21" s="17"/>
-      <c r="O21" s="17"/>
+      <c r="M21" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
       <c r="P21" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q21" s="17" t="s">
+      <c r="Q21" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="R21" s="17"/>
-      <c r="S21" s="17"/>
+      <c r="R21" s="20"/>
+      <c r="S21" s="20"/>
       <c r="T21" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U21" s="17" t="s">
+      <c r="U21" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V21" s="17"/>
-      <c r="W21" s="17"/>
+      <c r="V21" s="20"/>
+      <c r="W21" s="20"/>
     </row>
     <row r="22" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A22" s="11">
         <v>15</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17" t="s">
+      <c r="C22" s="20"/>
+      <c r="D22" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="17"/>
+      <c r="E22" s="20"/>
       <c r="F22" s="8" t="s">
         <v>34</v>
       </c>
@@ -7860,40 +8195,40 @@
       <c r="L22" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M22" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N22" s="17"/>
-      <c r="O22" s="17"/>
+      <c r="M22" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
       <c r="P22" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q22" s="17" t="s">
+      <c r="Q22" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="R22" s="17"/>
-      <c r="S22" s="17"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
       <c r="T22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U22" s="17" t="s">
+      <c r="U22" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V22" s="17"/>
-      <c r="W22" s="17"/>
+      <c r="V22" s="20"/>
+      <c r="W22" s="20"/>
     </row>
     <row r="23" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A23" s="12">
         <v>16</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17" t="s">
+      <c r="C23" s="20"/>
+      <c r="D23" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="17"/>
+      <c r="E23" s="20"/>
       <c r="F23" s="8" t="s">
         <v>34</v>
       </c>
@@ -7915,40 +8250,40 @@
       <c r="L23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M23" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N23" s="17"/>
-      <c r="O23" s="17"/>
+      <c r="M23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
       <c r="P23" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="Q23" s="17" t="s">
+      <c r="Q23" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="R23" s="17"/>
-      <c r="S23" s="17"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
       <c r="T23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U23" s="17" t="s">
+      <c r="U23" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="V23" s="17"/>
-      <c r="W23" s="17"/>
+      <c r="V23" s="20"/>
+      <c r="W23" s="20"/>
     </row>
     <row r="24" spans="1:23" ht="69" customHeight="1" x14ac:dyDescent="0.65">
       <c r="A24" s="11">
         <v>17</v>
       </c>
-      <c r="B24" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="E24" s="17"/>
+      <c r="B24" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="E24" s="20"/>
       <c r="F24" s="8" t="s">
         <v>34</v>
       </c>
@@ -7970,57 +8305,90 @@
       <c r="L24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="M24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="N24" s="17"/>
-      <c r="O24" s="17"/>
+      <c r="M24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
       <c r="P24" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="Q24" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="R24" s="17"/>
-      <c r="S24" s="17"/>
+      <c r="Q24" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
       <c r="T24" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="U24" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="V24" s="17"/>
-      <c r="W24" s="17"/>
+      <c r="U24" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="107">
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:E7"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="P1:S1"/>
-    <mergeCell ref="T1:W1"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="P3:S3"/>
-    <mergeCell ref="T3:W3"/>
-    <mergeCell ref="P4:S4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="A1:O2"/>
-    <mergeCell ref="A3:O4"/>
-    <mergeCell ref="U6:W7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="U8:W8"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="M6:O7"/>
-    <mergeCell ref="P6:S7"/>
-    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="Q21:S21"/>
+    <mergeCell ref="U21:W21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="Q20:S20"/>
+    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="U24:W24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="Q22:S22"/>
+    <mergeCell ref="U22:W22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="Q23:S23"/>
+    <mergeCell ref="U23:W23"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="Q19:S19"/>
+    <mergeCell ref="U19:W19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="Q17:S17"/>
+    <mergeCell ref="U17:W17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="U18:W18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U16:W16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="U15:W15"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="Q14:S14"/>
+    <mergeCell ref="U14:W14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="Q13:S13"/>
+    <mergeCell ref="U13:W13"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="M12:O12"/>
@@ -8041,66 +8409,33 @@
     <mergeCell ref="M11:O11"/>
     <mergeCell ref="Q11:S11"/>
     <mergeCell ref="U11:W11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="Q14:S14"/>
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="Q13:S13"/>
-    <mergeCell ref="U13:W13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="U16:W16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="U15:W15"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="Q19:S19"/>
-    <mergeCell ref="U19:W19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="Q17:S17"/>
-    <mergeCell ref="U17:W17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="U18:W18"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="U24:W24"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="Q22:S22"/>
-    <mergeCell ref="U22:W22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="Q23:S23"/>
-    <mergeCell ref="U23:W23"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="Q21:S21"/>
-    <mergeCell ref="U21:W21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="Q20:S20"/>
-    <mergeCell ref="U20:W20"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="U8:W8"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="M6:O7"/>
+    <mergeCell ref="P6:S7"/>
+    <mergeCell ref="T6:T7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:E7"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="P1:S1"/>
+    <mergeCell ref="T1:W1"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="P3:S3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="P4:S4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="A1:O2"/>
+    <mergeCell ref="A3:O4"/>
+    <mergeCell ref="U6:W7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
